--- a/ThaumAge/Assets/Data/Excel/excel_elemental_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_elemental_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20625" windowHeight="10215"/>
+    <workbookView windowWidth="28770" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="ElementalInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -76,7 +76,7 @@
     <t>ui_elemental_1</t>
   </si>
   <si>
-    <t>E0D800</t>
+    <t>#E0D800</t>
   </si>
   <si>
     <t>金</t>
@@ -88,7 +88,7 @@
     <t>ui_elemental_2</t>
   </si>
   <si>
-    <t>00932C</t>
+    <t>#00932C</t>
   </si>
   <si>
     <t>木</t>
@@ -100,7 +100,7 @@
     <t>ui_elemental_3</t>
   </si>
   <si>
-    <t>0083D2</t>
+    <t>#0083D2</t>
   </si>
   <si>
     <t>水</t>
@@ -112,7 +112,7 @@
     <t>ui_elemental_4</t>
   </si>
   <si>
-    <t>A60701</t>
+    <t>#A60701</t>
   </si>
   <si>
     <t>火</t>
@@ -124,7 +124,7 @@
     <t>ui_elemental_5</t>
   </si>
   <si>
-    <t>A63E02</t>
+    <t>#A63E02</t>
   </si>
   <si>
     <t>土</t>
@@ -136,7 +136,7 @@
     <t>ui_elemental_6</t>
   </si>
   <si>
-    <t>FFFFFF</t>
+    <t>#FFFFFF</t>
   </si>
   <si>
     <t>光</t>
@@ -148,7 +148,7 @@
     <t>ui_elemental_7</t>
   </si>
   <si>
-    <t>000000</t>
+    <t>#000000</t>
   </si>
   <si>
     <t>暗</t>
@@ -160,7 +160,7 @@
     <t>ui_elemental_1001</t>
   </si>
   <si>
-    <t>FF655B</t>
+    <t>#FF655B</t>
   </si>
   <si>
     <t>3&amp;5</t>
@@ -175,7 +175,7 @@
     <t>ui_elemental_1002</t>
   </si>
   <si>
-    <t>FFEC5A</t>
+    <t>#FFEC5A</t>
   </si>
   <si>
     <t>3&amp;2</t>
@@ -190,7 +190,7 @@
     <t>ui_elemental_1003</t>
   </si>
   <si>
-    <t>86D9DB</t>
+    <t>#86D9DB</t>
   </si>
   <si>
     <t>4&amp;2</t>
@@ -205,7 +205,7 @@
     <t>ui_elemental_1004</t>
   </si>
   <si>
-    <t>0047FF</t>
+    <t>#0047FF</t>
   </si>
   <si>
     <t>1&amp;2</t>
@@ -220,6 +220,9 @@
     <t>ui_elemental_1901</t>
   </si>
   <si>
+    <t>#989898</t>
+  </si>
+  <si>
     <t>1&amp;2&amp;3&amp;4&amp;5</t>
   </si>
   <si>
@@ -232,6 +235,9 @@
     <t>ui_elemental_1902</t>
   </si>
   <si>
+    <t>#383838</t>
+  </si>
+  <si>
     <t>6&amp;7</t>
   </si>
   <si>
@@ -244,7 +250,7 @@
     <t>ui_elemental_2001</t>
   </si>
   <si>
-    <t>020052</t>
+    <t>#020052</t>
   </si>
   <si>
     <t>1002&amp;1902</t>
@@ -259,7 +265,7 @@
     <t>ui_elemental_3001</t>
   </si>
   <si>
-    <t>5000E0</t>
+    <t>#5000E0</t>
   </si>
   <si>
     <t>2001&amp;1003</t>
@@ -895,9 +901,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,7 +1254,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1471,7 +1474,7 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1583,17 +1586,17 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
-        <v>989898</v>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:7">
@@ -1601,22 +1604,22 @@
         <v>1902</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
-        <v>383838</v>
+      <c r="D16" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:7">
@@ -1624,22 +1627,22 @@
         <v>2001</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>76</v>
+      <c r="D17" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:7">
@@ -1647,22 +1650,22 @@
         <v>3001</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
